--- a/outputs-HGR-r202/g__Coprococcus.xlsx
+++ b/outputs-HGR-r202/g__Coprococcus.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="g__Coprococcus_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,54 +435,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-s__Coprococcus eutactus</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-s__Coprococcus eutactus_A</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-s__Coprococcus sp000433075</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-s__Coprococcus sp900066115</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-s__Coprococcus sp900548215</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-s__Coprococcus sp900548315</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-s__Coprococcus sp900557435</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT10109.fa</t>
         </is>
@@ -519,14 +518,22 @@
       <c r="H2" t="n">
         <v>0.297614827971392</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>0.4320652150991787</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT15223.fa</t>
         </is>
@@ -552,14 +559,22 @@
       <c r="H3" t="n">
         <v>0.2526910707487698</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>0.4537491568952731</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT21377.fa</t>
         </is>
@@ -585,14 +600,22 @@
       <c r="H4" t="n">
         <v>0.2869748436225166</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>0.4020140574889417</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT23645.fa</t>
         </is>
@@ -618,14 +641,22 @@
       <c r="H5" t="n">
         <v>0.2950847045473334</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>0.4326952665062538</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT25847.fa</t>
         </is>
@@ -651,14 +682,22 @@
       <c r="H6" t="n">
         <v>0.2293371858736276</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>0.4578379962768635</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26496.fa</t>
         </is>
@@ -684,14 +723,22 @@
       <c r="H7" t="n">
         <v>0.2801003488014482</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>0.4724642287603137</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT32882.fa</t>
         </is>
@@ -717,14 +764,22 @@
       <c r="H8" t="n">
         <v>0.2362563141913601</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>0.4964499144476147</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT36916.fa</t>
         </is>
@@ -750,14 +805,22 @@
       <c r="H9" t="n">
         <v>0.2019355955501721</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>0.4790488889579061</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT41020.fa</t>
         </is>
@@ -783,14 +846,22 @@
       <c r="H10" t="n">
         <v>0.2580027441915158</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>0.4687878045194046</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT41911.fa</t>
         </is>
@@ -816,14 +887,22 @@
       <c r="H11" t="n">
         <v>0.2239797361139063</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>0.4770705202214719</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44474.fa</t>
         </is>
@@ -849,14 +928,22 @@
       <c r="H12" t="n">
         <v>0.2405485187793622</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>0.4284604496067192</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61128.fa</t>
         </is>
@@ -882,14 +969,22 @@
       <c r="H13" t="n">
         <v>0.2903875763491476</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>0.4485588338761525</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61164.fa</t>
         </is>
@@ -915,14 +1010,22 @@
       <c r="H14" t="n">
         <v>0.2112327368375539</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>0.4080046442651444</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT71686.fa</t>
         </is>
@@ -948,14 +1051,22 @@
       <c r="H15" t="n">
         <v>0.2352304497777468</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>0.4443582059603891</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT72020.fa</t>
         </is>
@@ -981,14 +1092,22 @@
       <c r="H16" t="n">
         <v>0.279336927029616</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>0.4443336612269091</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT73407.fa</t>
         </is>
@@ -1014,14 +1133,22 @@
       <c r="H17" t="n">
         <v>0.2477952216196944</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="n">
+        <v>0.4603348727970529</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT74962.fa</t>
         </is>
@@ -1047,14 +1174,22 @@
       <c r="H18" t="n">
         <v>0.2745463024661321</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>0.4460098685273014</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT76584.fa</t>
         </is>
@@ -1080,14 +1215,22 @@
       <c r="H19" t="n">
         <v>0.2955769595845413</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>0.4844027092925514</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT82836.fa</t>
         </is>
@@ -1113,14 +1256,22 @@
       <c r="H20" t="n">
         <v>0.265175120411796</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>0.457885227590318</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83203.fa</t>
         </is>
@@ -1146,14 +1297,22 @@
       <c r="H21" t="n">
         <v>0.2359148027056928</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>0.4129927976969693</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83214.fa</t>
         </is>
@@ -1179,14 +1338,22 @@
       <c r="H22" t="n">
         <v>0.2890566081063962</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>0.4012310439803632</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83835.fa</t>
         </is>
@@ -1212,14 +1379,22 @@
       <c r="H23" t="n">
         <v>0.3167602460236001</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="n">
+        <v>0.4261870387904243</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT84184.fa</t>
         </is>
@@ -1245,7 +1420,15 @@
       <c r="H24" t="n">
         <v>0.3515830091603474</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" t="n">
+        <v>0.4011824387873913</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>s__Coprococcus sp900066115</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>s__Coprococcus sp900066115</t>
         </is>

--- a/outputs-HGR-r202/g__Coprococcus.xlsx
+++ b/outputs-HGR-r202/g__Coprococcus.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>s__Coprococcus sp900066115</t>
+          <t>s__Coprococcus sp900066115(reject)</t>
         </is>
       </c>
     </row>
